--- a/xl/dashboard/dashboard.0.xlsx
+++ b/xl/dashboard/dashboard.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\shared\projects\polylab\xl\dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="8325"/>
   </bookViews>
@@ -20,12 +25,12 @@
     <definedName name="investment">SUMMARY!$D$13</definedName>
     <definedName name="scenario">SUMMARY!$D$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
   <si>
     <t>A</t>
   </si>
@@ -256,9 +261,6 @@
   </si>
   <si>
     <t>mkt_growth</t>
-  </si>
-  <si>
-    <t>by rez.appdev</t>
   </si>
   <si>
     <t>BASIC DASHBOARD v0.1</t>
@@ -402,12 +404,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,13 +808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +832,13 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -866,9 +868,8 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -881,8 +882,6 @@
         <bottom style="thin">
           <color rgb="FFC0C0C0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -901,9 +900,8 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -916,8 +914,6 @@
         <bottom style="thin">
           <color rgb="FFC0C0C0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -936,79 +932,9 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color rgb="FFC0C0C0"/>
         </right>
@@ -1037,7 +963,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1069,9 +995,29 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -1084,8 +1030,6 @@
         <bottom style="thin">
           <color rgb="FFC0C0C0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1104,131 +1048,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FFC0C0C0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1252,7 +1079,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1262,6 +1089,344 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1281,7 +1446,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1313,9 +1478,32 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
         <right style="thin">
           <color rgb="FFC0C0C0"/>
         </right>
@@ -1343,67 +1531,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FFC0C0C0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1427,7 +1562,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1456,7 +1591,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1488,7 +1623,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1520,7 +1655,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1554,7 +1689,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1588,13 +1723,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
         <top style="thin">
           <color rgb="FFC0C0C0"/>
         </top>
@@ -1621,12 +1757,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
         <top style="thin">
           <color rgb="FFC0C0C0"/>
         </top>
@@ -1653,11 +1791,9 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color rgb="FFC0C0C0"/>
         </right>
@@ -1669,6 +1805,29 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1687,164 +1846,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1875,7 +1877,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1904,7 +1906,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1935,7 +1937,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1965,7 +1967,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1997,7 +1999,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2029,7 +2031,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2062,7 +2064,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2095,7 +2097,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2130,7 +2132,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2162,7 +2164,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2194,7 +2196,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2262,7 +2264,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2337,7 +2339,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2370,7 +2372,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2425,7 +2427,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2453,7 +2455,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2500,6 +2502,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2512,13 +2522,13 @@
     <tableColumn id="9" name="mkt_growth" dataDxfId="57"/>
     <tableColumn id="5" name="mkt_capture" dataDxfId="56"/>
     <tableColumn id="6" name="revenue" dataDxfId="55">
-      <calculatedColumnFormula>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</calculatedColumnFormula>
+      <calculatedColumnFormula>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="costs" dataDxfId="54">
-      <calculatedColumnFormula>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="profit" dataDxfId="53" dataCellStyle="Percent">
-      <calculatedColumnFormula>[revenue]-[costs]</calculatedColumnFormula>
+      <calculatedColumnFormula>scenarios[revenue]-scenarios[costs]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2527,15 +2537,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="staffTable" displayName="staffTable" ref="B10:K16" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
-  <autoFilter ref="B10:K16">
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="B10:K16"/>
   <tableColumns count="10">
     <tableColumn id="1" name="id" dataDxfId="48"/>
     <tableColumn id="2" name="name" dataDxfId="47"/>
@@ -2548,10 +2550,10 @@
     <tableColumn id="5" name="overtime_m" dataDxfId="42"/>
     <tableColumn id="6" name="salary_m" dataDxfId="41"/>
     <tableColumn id="8" name="cost_hr" dataDxfId="40">
-      <calculatedColumnFormula>[salary_m]/240</calculatedColumnFormula>
+      <calculatedColumnFormula>staffTable[salary_m]/240</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="ot_cost_m" dataDxfId="39">
-      <calculatedColumnFormula>[cost_hr]*1.5*[overtime_m]</calculatedColumnFormula>
+      <calculatedColumnFormula>staffTable[cost_hr]*1.5*staffTable[overtime_m]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2574,33 +2576,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="logTable" displayName="logTable" ref="B10:M16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="logTable" displayName="logTable" ref="B10:M16" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="12">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="timestamp" dataDxfId="5"/>
-    <tableColumn id="3" name="name" dataDxfId="3"/>
-    <tableColumn id="11" name="category" dataDxfId="4"/>
-    <tableColumn id="10" name="type" dataDxfId="6"/>
-    <tableColumn id="12" name="mode" dataDxfId="2"/>
-    <tableColumn id="13" name="unit" dataDxfId="1"/>
-    <tableColumn id="14" name="action" dataDxfId="0"/>
-    <tableColumn id="4" name="hurdle" dataDxfId="26"/>
-    <tableColumn id="5" name="target" dataDxfId="25"/>
-    <tableColumn id="7" name="stretch" dataDxfId="24"/>
-    <tableColumn id="6" name="description" dataDxfId="23"/>
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="timestamp" dataDxfId="20"/>
+    <tableColumn id="3" name="name" dataDxfId="19"/>
+    <tableColumn id="11" name="category" dataDxfId="18"/>
+    <tableColumn id="10" name="type" dataDxfId="17"/>
+    <tableColumn id="12" name="mode" dataDxfId="16"/>
+    <tableColumn id="13" name="unit" dataDxfId="15"/>
+    <tableColumn id="14" name="action" dataDxfId="14"/>
+    <tableColumn id="4" name="hurdle" dataDxfId="13"/>
+    <tableColumn id="5" name="target" dataDxfId="12"/>
+    <tableColumn id="7" name="stretch" dataDxfId="11"/>
+    <tableColumn id="6" name="description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="logTable6" displayName="logTable6" ref="B10:F40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="logTable6" displayName="logTable6" ref="B10:F40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="16"/>
-    <tableColumn id="2" name="timestamp" dataDxfId="15"/>
-    <tableColumn id="3" name="kpi_id" dataDxfId="9"/>
-    <tableColumn id="4" name="kpi_name" dataDxfId="7"/>
-    <tableColumn id="5" name="kpi_value" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="timestamp" dataDxfId="3"/>
+    <tableColumn id="3" name="kpi_id" dataDxfId="2"/>
+    <tableColumn id="4" name="kpi_name" dataDxfId="1"/>
+    <tableColumn id="5" name="kpi_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2649,7 +2651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2681,9 +2683,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2715,6 +2735,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2890,45 +2928,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="44">
+        <v>77</v>
+      </c>
+      <c r="J1" s="52">
         <f ca="1">NOW()</f>
-        <v>42617.829470486111</v>
-      </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43291.00534502315</v>
+      </c>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -2943,18 +2979,18 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C9" s="20" t="s">
         <v>64</v>
       </c>
@@ -2962,12 +2998,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2979,21 +3015,21 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="26">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C17" s="20" t="s">
         <v>74</v>
       </c>
@@ -3004,21 +3040,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C19" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C21" s="20" t="s">
         <v>70</v>
       </c>
@@ -3035,7 +3071,7 @@
         <v>76</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>71</v>
@@ -3047,7 +3083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
@@ -3064,19 +3100,19 @@
         <v>0.02</v>
       </c>
       <c r="I22" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>2437988.8399895146</v>
       </c>
       <c r="J22" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>1394307.7382074615</v>
       </c>
       <c r="K22" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>1043681.101782053</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D23" s="25" t="s">
         <v>2</v>
       </c>
@@ -3093,19 +3129,19 @@
         <v>0.03</v>
       </c>
       <c r="I23" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>3656983.2599842716</v>
       </c>
       <c r="J23" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>2220202.0459662401</v>
       </c>
       <c r="K23" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>1436781.2140180315</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D24" s="25" t="s">
         <v>1</v>
       </c>
@@ -3122,24 +3158,24 @@
         <v>0.04</v>
       </c>
       <c r="I24" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>4875977.6799790291</v>
       </c>
       <c r="J24" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>5300027.3097916404</v>
       </c>
       <c r="K24" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>-424049.62981261127</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>47</v>
       </c>
@@ -3156,18 +3192,18 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C30" s="20" t="s">
         <v>51</v>
       </c>
@@ -3179,24 +3215,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C31" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="29">
         <f ca="1">AVERAGE(staffTable[service_yrs])</f>
-        <v>23.979629629629628</v>
+        <v>25.829629629629633</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C34" s="20" t="s">
         <v>53</v>
       </c>
@@ -3209,7 +3245,7 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C35" s="20" t="s">
         <v>62</v>
       </c>
@@ -3222,7 +3258,7 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C36" s="37" t="s">
         <v>63</v>
       </c>
@@ -3235,7 +3271,7 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D39" s="4">
         <v>1</v>
       </c>
@@ -3267,55 +3303,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C40" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="19">
         <f ca="1">YEAR(NOW())</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E40" s="19">
         <f ca="1">D40+1</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F40" s="19">
         <f t="shared" ref="F40:M40" ca="1" si="0">E40+1</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C42" s="19" t="s">
         <v>69</v>
       </c>
@@ -3360,7 +3396,7 @@
         <v>119509256.86223112</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
         <v>76</v>
       </c>
@@ -3405,158 +3441,158 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="43">
         <f>VLOOKUP(scenario, scenarios[], MATCH($C44, scenarios[#Headers],0),FALSE)</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E44" s="32">
         <f>D44</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" ref="F44:M44" si="3">E44</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M44" s="32">
         <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C46" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="43">
         <f>VLOOKUP(scenario, scenarios[], MATCH($C46, scenarios[#Headers],0),FALSE)</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="43">
         <f>D46</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F46" s="43">
         <f t="shared" ref="F46:M46" si="4">E46</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="J46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="K46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="L46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="M46" s="43">
         <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C48" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="28">
         <f>D44*D42</f>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="E48" s="28">
         <f t="shared" ref="E48:M48" si="5">E42*E44</f>
-        <v>2040000</v>
+        <v>4080000</v>
       </c>
       <c r="F48" s="28">
         <f t="shared" si="5"/>
-        <v>2080800</v>
+        <v>4161600</v>
       </c>
       <c r="G48" s="28">
         <f t="shared" si="5"/>
-        <v>2122416</v>
+        <v>4244832</v>
       </c>
       <c r="H48" s="28">
         <f t="shared" si="5"/>
-        <v>2164864.3199999998</v>
+        <v>4329728.6399999997</v>
       </c>
       <c r="I48" s="28">
         <f t="shared" si="5"/>
-        <v>2208161.6064000004</v>
+        <v>4416323.2128000008</v>
       </c>
       <c r="J48" s="28">
         <f t="shared" si="5"/>
-        <v>2252324.8385280003</v>
+        <v>4504649.6770560006</v>
       </c>
       <c r="K48" s="28">
         <f t="shared" si="5"/>
-        <v>2297371.3352985601</v>
+        <v>4594742.6705971202</v>
       </c>
       <c r="L48" s="28">
         <f t="shared" si="5"/>
-        <v>2343318.7620045315</v>
+        <v>4686637.5240090629</v>
       </c>
       <c r="M48" s="28">
         <f t="shared" si="5"/>
-        <v>2390185.1372446227</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13">
+        <v>4780370.2744892454</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C50" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C51" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="28">
         <f>SUM(staffTable[salary_m])*12</f>
@@ -3599,80 +3635,80 @@
         <v>855984</v>
       </c>
     </row>
-    <row r="52" spans="3:13">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C52" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C53" s="34"/>
     </row>
-    <row r="54" spans="3:13">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C54" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="28">
         <f>D48-D51</f>
-        <v>1144016</v>
+        <v>3144016</v>
       </c>
       <c r="E54" s="28">
         <f t="shared" ref="E54:M54" si="6">E48-E51</f>
-        <v>1184016</v>
+        <v>3224016</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="6"/>
-        <v>1224816</v>
+        <v>3305616</v>
       </c>
       <c r="G54" s="28">
         <f t="shared" si="6"/>
-        <v>1266432</v>
+        <v>3388848</v>
       </c>
       <c r="H54" s="28">
         <f t="shared" si="6"/>
-        <v>1308880.3199999998</v>
+        <v>3473744.6399999997</v>
       </c>
       <c r="I54" s="28">
         <f t="shared" si="6"/>
-        <v>1352177.6064000004</v>
+        <v>3560339.2128000008</v>
       </c>
       <c r="J54" s="28">
         <f t="shared" si="6"/>
-        <v>1396340.8385280003</v>
+        <v>3648665.6770560006</v>
       </c>
       <c r="K54" s="28">
         <f t="shared" si="6"/>
-        <v>1441387.3352985601</v>
+        <v>3738758.6705971202</v>
       </c>
       <c r="L54" s="28">
         <f t="shared" si="6"/>
-        <v>1487334.7620045315</v>
+        <v>3830653.5240090629</v>
       </c>
       <c r="M54" s="28">
         <f t="shared" si="6"/>
-        <v>1534201.1372446227</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13">
+        <v>3924386.2744892454</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C55" s="34"/>
     </row>
-    <row r="56" spans="3:13">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C56" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C57" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="3:13">
-      <c r="C57" s="34" t="s">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C58" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="3:13">
-      <c r="C58" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3701,18 +3737,18 @@
       <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.265625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3763,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3780,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3795,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +3810,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +3825,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3837,7 +3873,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3854,7 +3890,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" collapsed="1">
+    <row r="10" spans="1:11" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3922,7 +3958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -3933,11 +3969,11 @@
         <v>36456</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>16.863888888888887</v>
+        <v>18.713888888888889</v>
       </c>
       <c r="G11" s="1">
         <v>21</v>
@@ -3949,15 +3985,15 @@
         <v>10000</v>
       </c>
       <c r="J11" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>41.666666666666664</v>
       </c>
       <c r="K11" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>15625</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -3968,11 +4004,11 @@
         <v>29221</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>36.674999999999997</v>
+        <v>38.524999999999999</v>
       </c>
       <c r="G12" s="1">
         <v>22</v>
@@ -3984,15 +4020,15 @@
         <v>13400</v>
       </c>
       <c r="J12" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>55.833333333333336</v>
       </c>
       <c r="K12" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>21356.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -4003,11 +4039,11 @@
         <v>27129</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>42.4</v>
+        <v>44.25</v>
       </c>
       <c r="G13" s="1">
         <v>23</v>
@@ -4019,15 +4055,15 @@
         <v>20100</v>
       </c>
       <c r="J13" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>83.75</v>
       </c>
       <c r="K13" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>32662.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -4038,11 +4074,11 @@
         <v>36892</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>15.675000000000001</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="G14" s="1">
         <v>34</v>
@@ -4054,15 +4090,15 @@
         <v>8900</v>
       </c>
       <c r="J14" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>37.083333333333336</v>
       </c>
       <c r="K14" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>14740.625</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -4073,11 +4109,11 @@
         <v>37289</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>14.588888888888889</v>
+        <v>16.43888888888889</v>
       </c>
       <c r="G15" s="1">
         <v>22</v>
@@ -4089,15 +4125,15 @@
         <v>7900</v>
       </c>
       <c r="J15" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>32.916666666666664</v>
       </c>
       <c r="K15" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>13331.25</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -4108,11 +4144,11 @@
         <v>36161</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>17.675000000000001</v>
+        <v>19.524999999999999</v>
       </c>
       <c r="G16" s="11">
         <v>41</v>
@@ -4124,11 +4160,11 @@
         <v>11032</v>
       </c>
       <c r="J16" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>45.966666666666669</v>
       </c>
       <c r="K16" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>18961.25</v>
       </c>
     </row>
@@ -4142,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4150,18 +4186,18 @@
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4209,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4221,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4197,7 +4233,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4209,7 +4245,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4221,7 +4257,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4261,7 +4297,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4273,7 +4309,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" collapsed="1">
+    <row r="10" spans="1:8" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4323,7 +4359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -4346,7 +4382,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -4392,7 +4428,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -4415,7 +4451,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -4438,7 +4474,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -4476,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4484,23 +4520,23 @@
       <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="6.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4517,7 +4553,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4534,7 +4570,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +4587,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4568,7 +4604,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4621,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4626,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4645,7 +4681,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4662,7 +4698,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" collapsed="1">
+    <row r="10" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4711,9 +4747,9 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -4723,66 +4759,66 @@
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="14">
         <v>42653</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="47">
+      <c r="G11" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="44">
         <v>200</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="44">
         <v>150</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="44">
         <v>130</v>
       </c>
-      <c r="M11" s="49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -4790,38 +4826,38 @@
         <f>C11+30</f>
         <v>42683</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="47" t="s">
+      <c r="G12" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="44">
+        <v>150000</v>
+      </c>
+      <c r="K12" s="44">
+        <v>150000</v>
+      </c>
+      <c r="L12" s="44">
+        <v>150000</v>
+      </c>
+      <c r="M12" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="47">
-        <v>150000</v>
-      </c>
-      <c r="K12" s="47">
-        <v>150000</v>
-      </c>
-      <c r="L12" s="47">
-        <v>150000</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -4829,38 +4865,38 @@
         <f t="shared" ref="C13:C16" si="0">C12+30</f>
         <v>42713</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="52">
+      <c r="J13" s="49">
         <v>0.75</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="49">
         <v>0.8</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="49">
         <v>0.85</v>
       </c>
-      <c r="M13" s="49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -4868,38 +4904,38 @@
         <f t="shared" si="0"/>
         <v>42743</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="47">
+      <c r="G14" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="44">
         <v>100</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="44">
         <v>100</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="44">
         <v>100</v>
       </c>
-      <c r="M14" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -4907,40 +4943,40 @@
         <f t="shared" si="0"/>
         <v>42773</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="52">
+      <c r="J15" s="49">
         <v>0.35</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="49">
         <f>logTable[[#This Row],[hurdle]]+0.1</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="49">
         <f>logTable[[#This Row],[target]]+0.1</f>
         <v>0.54999999999999993</v>
       </c>
-      <c r="M15" s="49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -4948,37 +4984,37 @@
         <f t="shared" si="0"/>
         <v>42803</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="52">
+      <c r="G16" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="49">
         <v>0.35</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="49">
         <f>logTable[[#This Row],[hurdle]]+0.1</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="49">
         <f>logTable[[#This Row],[target]]+0.1</f>
         <v>0.54999999999999993</v>
       </c>
-      <c r="M16" s="49" t="s">
-        <v>123</v>
+      <c r="M16" s="46" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5002,7 +5038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
@@ -5010,18 +5046,18 @@
       <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
     <col min="2" max="2" width="7" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="4"/>
+    <col min="7" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -5031,7 +5067,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -5041,7 +5077,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5051,7 +5087,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5097,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5107,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5091,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -5105,7 +5141,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -5115,7 +5151,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5135,7 +5171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" collapsed="1">
+    <row r="10" spans="1:6" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -5143,19 +5179,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -5165,14 +5201,14 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="53">
+      <c r="E11" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -5183,14 +5219,14 @@
       <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="50">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -5201,14 +5237,14 @@
       <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="54">
+      <c r="E13" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="51">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -5219,14 +5255,14 @@
       <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="53">
+      <c r="E14" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="50">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -5237,14 +5273,14 @@
       <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="51">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -5255,14 +5291,14 @@
       <c r="D16" s="10">
         <v>6</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="53">
+      <c r="E16" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="50">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>7</v>
       </c>
@@ -5272,15 +5308,15 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="47">
+      <c r="E17" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="44">
         <f>F11+10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>8</v>
       </c>
@@ -5291,15 +5327,15 @@
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="44">
         <f>F12+10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>9</v>
       </c>
@@ -5310,15 +5346,15 @@
       <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="48">
+      <c r="E19" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="45">
         <f>F13+0.05</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>10</v>
       </c>
@@ -5329,15 +5365,15 @@
       <c r="D20" s="5">
         <v>4</v>
       </c>
-      <c r="E20" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="47">
+      <c r="E20" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="44">
         <f>F14-2</f>
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>11</v>
       </c>
@@ -5348,15 +5384,15 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="48">
+      <c r="E21" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="45">
         <f>F15+0.01</f>
         <v>0.31</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>12</v>
       </c>
@@ -5367,15 +5403,15 @@
       <c r="D22" s="10">
         <v>6</v>
       </c>
-      <c r="E22" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="47">
+      <c r="E22" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="44">
         <f>F16+5000</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>13</v>
       </c>
@@ -5385,15 +5421,15 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="47">
+      <c r="E23" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="44">
         <f>F17+10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>14</v>
       </c>
@@ -5404,15 +5440,15 @@
       <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="44">
         <f>F18+10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>15</v>
       </c>
@@ -5423,15 +5459,15 @@
       <c r="D25" s="5">
         <v>3</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="48">
+      <c r="E25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="45">
         <f>F19+0.05</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>16</v>
       </c>
@@ -5442,15 +5478,15 @@
       <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="47">
+      <c r="E26" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="44">
         <f>F20-2</f>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>17</v>
       </c>
@@ -5461,15 +5497,15 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="E27" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="48">
+      <c r="E27" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="45">
         <f>F21+0.01</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>18</v>
       </c>
@@ -5480,15 +5516,15 @@
       <c r="D28" s="10">
         <v>6</v>
       </c>
-      <c r="E28" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="47">
+      <c r="E28" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="44">
         <f>F22+5000</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>19</v>
       </c>
@@ -5498,15 +5534,15 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="47">
+      <c r="E29" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="44">
         <f>F23+10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>20</v>
       </c>
@@ -5517,15 +5553,15 @@
       <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="44">
         <f>F24+10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>21</v>
       </c>
@@ -5536,15 +5572,15 @@
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="48">
+      <c r="E31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="45">
         <f>F25+0.05</f>
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>22</v>
       </c>
@@ -5555,15 +5591,15 @@
       <c r="D32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="47">
+      <c r="E32" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="44">
         <f>F26-2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>23</v>
       </c>
@@ -5574,15 +5610,15 @@
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="48">
+      <c r="E33" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="45">
         <f>F27+0.01</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>24</v>
       </c>
@@ -5593,15 +5629,15 @@
       <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="47">
+      <c r="E34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="44">
         <f>F28+5000</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>25</v>
       </c>
@@ -5611,15 +5647,15 @@
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="47">
+      <c r="E35" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="44">
         <f>F29+10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>26</v>
       </c>
@@ -5630,15 +5666,15 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="44">
         <f>F30+10</f>
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>27</v>
       </c>
@@ -5649,15 +5685,15 @@
       <c r="D37" s="5">
         <v>3</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="48">
+      <c r="E37" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="45">
         <f>F31+0.05</f>
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>28</v>
       </c>
@@ -5668,15 +5704,15 @@
       <c r="D38" s="5">
         <v>4</v>
       </c>
-      <c r="E38" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="47">
+      <c r="E38" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="44">
         <f>F32-2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>29</v>
       </c>
@@ -5687,15 +5723,15 @@
       <c r="D39" s="5">
         <v>5</v>
       </c>
-      <c r="E39" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="48">
+      <c r="E39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="45">
         <f>F33+0.01</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>30</v>
       </c>
@@ -5706,10 +5742,10 @@
       <c r="D40" s="10">
         <v>6</v>
       </c>
-      <c r="E40" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="47">
+      <c r="E40" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="44">
         <f>F34+5000</f>
         <v>70000</v>
       </c>
@@ -5729,25 +5765,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="54"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5755,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5763,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
